--- a/scripts/shstrophies/data/Mr Torren_s initial data input/Winter Awards/Dance.xlsx
+++ b/scripts/shstrophies/data/Mr Torren_s initial data input/Winter Awards/Dance.xlsx
@@ -12,15 +12,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="36">
   <si>
     <t>Year</t>
+  </si>
+  <si>
+    <t>Leadership</t>
+  </si>
+  <si>
+    <t>Most Dedicated</t>
   </si>
   <si>
     <t>Most Valuable</t>
   </si>
   <si>
+    <t>Best All Around</t>
+  </si>
+  <si>
     <t>Most Improved</t>
+  </si>
+  <si>
+    <t>Best Leaps</t>
+  </si>
+  <si>
+    <t>Most Focused</t>
+  </si>
+  <si>
+    <t>Best Teammate</t>
   </si>
   <si>
     <t>Outstanding Frosh</t>
@@ -35,37 +53,16 @@
     <t>Coaches Award (Falcon Award)</t>
   </si>
   <si>
-    <t>2007/2008</t>
+    <t>image URL</t>
   </si>
   <si>
-    <t>2008/2009</t>
-  </si>
-  <si>
-    <t>2009/2010</t>
-  </si>
-  <si>
-    <t>Leadership</t>
-  </si>
-  <si>
-    <t>2010/2011</t>
-  </si>
-  <si>
-    <t>Most Dedicated</t>
+    <t>DEFAULT IMAGE</t>
   </si>
   <si>
     <t>2011/2012</t>
   </si>
   <si>
-    <t>Best All Around</t>
-  </si>
-  <si>
-    <t>Best Leaps</t>
-  </si>
-  <si>
-    <t>Most Focused</t>
-  </si>
-  <si>
-    <t>Best Teammate</t>
+    <t>2007/2008</t>
   </si>
   <si>
     <t>2012/2013</t>
@@ -74,25 +71,13 @@
     <t>2013/2014</t>
   </si>
   <si>
-    <t>2014/2015</t>
-  </si>
-  <si>
-    <t>2015/2016</t>
-  </si>
-  <si>
     <t>Joy Tang</t>
   </si>
   <si>
-    <t>2016/2017</t>
+    <t>Madison Seagraves</t>
   </si>
   <si>
-    <t>2017/2018</t>
-  </si>
-  <si>
-    <t>2018/2019</t>
-  </si>
-  <si>
-    <t>Madison Seagraves</t>
+    <t>2008/2009</t>
   </si>
   <si>
     <t>Nadia Younes</t>
@@ -110,10 +95,31 @@
     <t>Isabel Lin</t>
   </si>
   <si>
+    <t>2014/2015</t>
+  </si>
+  <si>
+    <t>2015/2016</t>
+  </si>
+  <si>
+    <t>2016/2017</t>
+  </si>
+  <si>
     <t>2017-2018</t>
   </si>
   <si>
     <t>2018-2019</t>
+  </si>
+  <si>
+    <t>2009/2010</t>
+  </si>
+  <si>
+    <t>2010/2011</t>
+  </si>
+  <si>
+    <t>2017/2018</t>
+  </si>
+  <si>
+    <t>2018/2019</t>
   </si>
 </sst>
 </file>
@@ -126,10 +132,10 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font/>
     <font>
       <name val="Arial"/>
     </font>
-    <font/>
   </fonts>
   <fills count="3">
     <fill>
@@ -156,36 +162,36 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -224,143 +230,169 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="7" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="7" t="s">
+      <c r="C2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="7" t="s">
+    </row>
+    <row r="4">
+      <c r="A4" s="7"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
-      <c r="Y1" s="8"/>
-      <c r="Z1" s="8"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="9"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="9" t="s">
+    </row>
+    <row r="6">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="7" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="9"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="C7" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="7"/>
+      <c r="B8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10" t="s">
+      <c r="F8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="10" t="s">
+    </row>
+    <row r="9">
+      <c r="A9" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="C9" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="10" t="s">
+    </row>
+    <row r="11">
+      <c r="A11" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="I7" s="10" t="s">
+    </row>
+    <row r="13">
+      <c r="A13" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="6"/>
-    </row>
     <row r="14">
-      <c r="A14" s="11"/>
+      <c r="A14" s="10"/>
     </row>
     <row r="15">
       <c r="A15" s="11"/>
@@ -3271,6 +3303,9 @@
     </row>
     <row r="984">
       <c r="A984" s="11"/>
+    </row>
+    <row r="985">
+      <c r="A985" s="11"/>
     </row>
   </sheetData>
   <printOptions gridLines="1" horizontalCentered="1"/>
@@ -3291,389 +3326,431 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
+      <c r="D1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
+      <c r="A2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
+      <c r="A3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
+      <c r="A4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
     </row>
     <row r="5">
-      <c r="A5" s="6"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="1"/>
-      <c r="Z5" s="1"/>
+      <c r="A5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
-      <c r="Z6" s="1"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
-      <c r="Z7" s="1"/>
+      <c r="A7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
     </row>
     <row r="8">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
-      <c r="X8" s="1"/>
-      <c r="Y8" s="1"/>
-      <c r="Z8" s="1"/>
+      <c r="A8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="10"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
-      <c r="X9" s="1"/>
-      <c r="Y9" s="1"/>
-      <c r="Z9" s="1"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="6"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
-      <c r="Z10" s="1"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="1"/>
-      <c r="Z11" s="1"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
-      <c r="X12" s="1"/>
-      <c r="Y12" s="1"/>
-      <c r="Z12" s="1"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="A13" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="s">
-        <v>23</v>
+      <c r="A14" s="6" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="s">
-        <v>24</v>
+      <c r="A15" s="6" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="s">
-        <v>25</v>
+      <c r="A16" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="6" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/scripts/shstrophies/data/Mr Torren_s initial data input/Winter Awards/Dance.xlsx
+++ b/scripts/shstrophies/data/Mr Torren_s initial data input/Winter Awards/Dance.xlsx
@@ -20,10 +20,10 @@
     <t>Leadership</t>
   </si>
   <si>
-    <t>Most Dedicated</t>
+    <t>Most Valuable</t>
   </si>
   <si>
-    <t>Most Valuable</t>
+    <t>Most Dedicated</t>
   </si>
   <si>
     <t>Best All Around</t>
@@ -62,9 +62,6 @@
     <t>2011/2012</t>
   </si>
   <si>
-    <t>2007/2008</t>
-  </si>
-  <si>
     <t>2012/2013</t>
   </si>
   <si>
@@ -75,9 +72,6 @@
   </si>
   <si>
     <t>Madison Seagraves</t>
-  </si>
-  <si>
-    <t>2008/2009</t>
   </si>
   <si>
     <t>Nadia Younes</t>
@@ -98,6 +92,9 @@
     <t>2014/2015</t>
   </si>
   <si>
+    <t>2007/2008</t>
+  </si>
+  <si>
     <t>2015/2016</t>
   </si>
   <si>
@@ -108,6 +105,9 @@
   </si>
   <si>
     <t>2018-2019</t>
+  </si>
+  <si>
+    <t>2008/2009</t>
   </si>
   <si>
     <t>2009/2010</t>
@@ -164,11 +164,11 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
@@ -176,14 +176,14 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
@@ -233,28 +233,28 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="5"/>
@@ -276,119 +276,119 @@
       <c r="Z1" s="5"/>
     </row>
     <row r="2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="7"/>
+      <c r="A4" s="6"/>
     </row>
     <row r="5">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="6"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="7"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="7" t="s">
+      <c r="B7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="C7" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="6"/>
+      <c r="B8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8" t="s">
+      <c r="D8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="8" t="s">
+      <c r="F8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="7" t="s">
+    </row>
+    <row r="10">
+      <c r="A10" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="6" t="s">
+    </row>
+    <row r="11">
+      <c r="A11" s="8" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="6" t="s">
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="6" t="s">
+    </row>
+    <row r="13">
+      <c r="A13" s="8" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="6" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="14">
@@ -3326,11 +3326,11 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>5</v>
@@ -3347,101 +3347,101 @@
       <c r="G1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
     </row>
     <row r="2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
     </row>
     <row r="3">
-      <c r="A3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
+      <c r="A3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
       <c r="D3" s="9"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
     </row>
     <row r="4">
-      <c r="A4" s="6" t="s">
-        <v>21</v>
+      <c r="A4" s="8" t="s">
+        <v>31</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -3449,28 +3449,28 @@
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
     </row>
     <row r="5">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="8" t="s">
         <v>32</v>
       </c>
       <c r="B5" s="9"/>
@@ -3479,86 +3479,86 @@
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="3"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" s="10"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
       <c r="D6" s="9"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="3"/>
-      <c r="Z6" s="3"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
     </row>
     <row r="7">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="8" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
       <c r="G7" s="9"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="3"/>
-      <c r="Z7" s="3"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
     </row>
     <row r="8">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="9"/>
@@ -3567,83 +3567,83 @@
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
-      <c r="Z8" s="3"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
     </row>
     <row r="9">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
       <c r="C9" s="9"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
-      <c r="W9" s="3"/>
-      <c r="X9" s="3"/>
-      <c r="Y9" s="3"/>
-      <c r="Z9" s="3"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
     </row>
     <row r="10">
-      <c r="A10" s="6" t="s">
-        <v>17</v>
+      <c r="A10" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
-      <c r="V10" s="3"/>
-      <c r="W10" s="3"/>
-      <c r="X10" s="3"/>
-      <c r="Y10" s="3"/>
-      <c r="Z10" s="3"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" s="10"/>
@@ -3652,30 +3652,30 @@
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
-      <c r="V11" s="3"/>
-      <c r="W11" s="3"/>
-      <c r="X11" s="3"/>
-      <c r="Y11" s="3"/>
-      <c r="Z11" s="3"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="2"/>
     </row>
     <row r="12">
-      <c r="A12" s="6" t="s">
-        <v>18</v>
+      <c r="A12" s="8" t="s">
+        <v>17</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -3683,29 +3683,29 @@
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
-      <c r="W12" s="3"/>
-      <c r="X12" s="3"/>
-      <c r="Y12" s="3"/>
-      <c r="Z12" s="3"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="2"/>
     </row>
     <row r="13">
-      <c r="A13" s="6" t="s">
-        <v>27</v>
+      <c r="A13" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -3713,43 +3713,43 @@
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
-      <c r="V13" s="3"/>
-      <c r="W13" s="3"/>
-      <c r="X13" s="3"/>
-      <c r="Y13" s="3"/>
-      <c r="Z13" s="3"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="2"/>
     </row>
     <row r="14">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
     <row r="16">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="8" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="8" t="s">
         <v>35</v>
       </c>
     </row>
